--- a/resource_api/raporlar/dosyalar/Yukleme-Musteri.xlsx
+++ b/resource_api/raporlar/dosyalar/Yukleme-Musteri.xlsx
@@ -578,25 +578,25 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>59013.41</v>
+        <v>26117.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>59013.41</v>
+        <v>29767.64</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>31064.66</v>
+        <v>27058.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>32365.43</v>
+        <v>27058.5</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Mustek Engineering - Ghana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,34 +623,34 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>20390.4</v>
+        <v>17910.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>20390.4</v>
+        <v>21110.11</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>20366.55</v>
+        <v>19535.55</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>20366.55</v>
+        <v>19635.55</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17019.9</v>
+        <v>18544.56</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>17019.9</v>
+        <v>18544.56</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>Serra Marble - Turkey</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13274.29</v>
+        <v>12096</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>13274.29</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Karaöz Maden - Turkey</t>
+          <t>Cem Mermer (Cemalettin)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -695,34 +695,34 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2662.2</v>
+        <v>10516.16</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>2662.2</v>
+        <v>10516.16</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hisarli Mermer</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2575.15</v>
+        <v>7368.08</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>2575.15</v>
+        <v>7368.08</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sam - Ghana</t>
+          <t>Ante Drazic - HR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -731,93 +731,163 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>2000</v>
+        <v>4893.5</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>2210</v>
+        <v>4893.5</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Andrii - Ukraine</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>2075.55</v>
+        <v>4888.24</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>2075.55</v>
+        <v>4888.24</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Kent Mermer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>949.99</v>
+        <v>3711.65</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1814.99</v>
+        <v>3711.65</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Yunus Kıvanç - Turkey</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>3550</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tamer ($)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2365.2</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2365.2</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2292.49</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>2292.49</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Beyzanur Mermer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>463.68</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>463.68</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="C15" s="16" t="n">
-        <v>171855.78</v>
-      </c>
-      <c r="D15" s="16" t="n">
-        <v>174231.55</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="4" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1575</v>
+      </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1460.24</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1460.24</v>
+      </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>İrfan - Turkey</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1072.38</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1072.38</v>
+      </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
+      <c r="C20" s="16" t="n">
+        <v>164955.3</v>
+      </c>
+      <c r="D20" s="16" t="n">
+        <v>171905.3</v>
+      </c>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="C21" s="4" t="n"/>
